--- a/data/trans_camb/P29A_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P29A_R-Provincia-trans_camb.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,94; -10,35</t>
+          <t>-21,63; -10,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-41,86; -25,85</t>
+          <t>-41,25; -26,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,85; -18,24</t>
+          <t>-27,52; -18,12</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,05; -10,44</t>
+          <t>-21,74; -10,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-42,31; -26,77</t>
+          <t>-41,85; -27,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,03; -18,25</t>
+          <t>-27,75; -18,41</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-22,9; -11,13</t>
+          <t>-23,27; -11,42</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-32,39; -16,43</t>
+          <t>-32,33; -16,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,69; -15,32</t>
+          <t>-24,72; -15,45</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,16; -11,27</t>
+          <t>-23,42; -11,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,49; -17,79</t>
+          <t>-33,42; -17,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,1; -15,68</t>
+          <t>-25,15; -15,86</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,31; -0,95</t>
+          <t>-6,82; -0,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-23,16; -10,13</t>
+          <t>-23,42; -9,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,35; -5,06</t>
+          <t>-11,37; -5,3</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,34; -0,96</t>
+          <t>-6,82; -0,99</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-23,54; -10,48</t>
+          <t>-24,17; -10,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,42; -5,2</t>
+          <t>-11,47; -5,36</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 1,25</t>
+          <t>-12,07; 0,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-35,97; -3,63</t>
+          <t>-34,33; -4,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-21,62; -3,97</t>
+          <t>-20,02; -3,43</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 1,22</t>
+          <t>-12,51; 0,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-38,99; -4,19</t>
+          <t>-35,96; -4,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,68; -4,25</t>
+          <t>-21,34; -3,73</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-19,35; -1,72</t>
+          <t>-19,86; -1,03</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-61,99; -17,95</t>
+          <t>-62,4; -18,24</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-30,32; -10,17</t>
+          <t>-29,47; -9,65</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-19,7; -1,92</t>
+          <t>-20,11; -1,34</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-61,99; -17,95</t>
+          <t>-62,4; -18,24</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-30,85; -10,54</t>
+          <t>-29,81; -9,86</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,75; -1,07</t>
+          <t>-10,22; -1,49</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-12,03; -1,05</t>
+          <t>-12,13; -0,54</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,82; -2,37</t>
+          <t>-8,52; -2,17</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-9,81; -1,12</t>
+          <t>-10,34; -1,57</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-12,19; -1,09</t>
+          <t>-12,49; -0,63</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-8,89; -2,41</t>
+          <t>-8,61; -2,23</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-19,13; -10,44</t>
+          <t>-19,42; -10,53</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-26,6; -5,88</t>
+          <t>-27,12; -4,54</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-20,8; -9,41</t>
+          <t>-20,76; -9,39</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-19,09; -10,44</t>
+          <t>-19,44; -10,59</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-27,16; -6,06</t>
+          <t>-27,77; -4,64</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-21,02; -9,58</t>
+          <t>-21,01; -9,52</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1251,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-52,68; -26,61</t>
+          <t>-52,69; -26,49</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-60,69; -48,43</t>
+          <t>-61,3; -48,4</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-56,47; -37,47</t>
+          <t>-54,28; -37,2</t>
         </is>
       </c>
     </row>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-53,43; -26,93</t>
+          <t>-53,18; -26,9</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-62,04; -50,33</t>
+          <t>-62,74; -50,22</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-57,36; -38,27</t>
+          <t>-55,32; -37,94</t>
         </is>
       </c>
     </row>
@@ -1347,17 +1347,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-25,03; -14,27</t>
+          <t>-26,13; -14,25</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-29,98; -19,02</t>
+          <t>-30,26; -19,29</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-25,13; -18,57</t>
+          <t>-25,69; -18,67</t>
         </is>
       </c>
     </row>
@@ -1393,17 +1393,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-25,34; -14,47</t>
+          <t>-26,35; -14,42</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-30,85; -19,7</t>
+          <t>-31,03; -19,87</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-25,56; -18,97</t>
+          <t>-26,06; -19,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P29A_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P29A_R-Provincia-trans_camb.xlsx
@@ -522,17 +522,17 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2015</t>
+          <t>2023/2016</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,63; -10,09</t>
+          <t>-21,53; -10,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-41,25; -26,14</t>
+          <t>-40,9; -25,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,52; -18,12</t>
+          <t>-27,32; -18,16</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,74; -10,18</t>
+          <t>-21,66; -10,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-41,85; -27,37</t>
+          <t>-41,56; -26,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-27,75; -18,41</t>
+          <t>-27,77; -18,47</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-23,27; -11,42</t>
+          <t>-23,7; -11,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-32,33; -16,42</t>
+          <t>-32,37; -16,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,72; -15,45</t>
+          <t>-24,65; -15,44</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,42; -11,44</t>
+          <t>-23,8; -11,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,42; -17,46</t>
+          <t>-33,05; -17,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,15; -15,86</t>
+          <t>-24,93; -15,73</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,82; -0,99</t>
+          <t>-6,81; -0,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-23,42; -9,85</t>
+          <t>-22,83; -9,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,37; -5,3</t>
+          <t>-11,55; -5,3</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,82; -0,99</t>
+          <t>-6,83; -1,06</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-24,17; -10,48</t>
+          <t>-23,24; -10,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,47; -5,36</t>
+          <t>-11,67; -5,39</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 0,86</t>
+          <t>-11,51; 0,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-34,33; -4,06</t>
+          <t>-34,12; -3,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-20,02; -3,43</t>
+          <t>-20,01; -3,38</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 0,9</t>
+          <t>-11,97; 0,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-35,96; -4,29</t>
+          <t>-35,87; -4,3</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-21,34; -3,73</t>
+          <t>-21,42; -3,65</t>
         </is>
       </c>
     </row>
@@ -963,7 +963,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-19,86; -1,03</t>
+          <t>-21,0; -1,36</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -973,7 +973,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-29,47; -9,65</t>
+          <t>-29,58; -9,07</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-20,11; -1,34</t>
+          <t>-21,34; -1,43</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-29,81; -9,86</t>
+          <t>-29,91; -9,3</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,22; -1,49</t>
+          <t>-10,1; -1,44</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-12,13; -0,54</t>
+          <t>-11,93; -0,99</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,52; -2,17</t>
+          <t>-8,5; -2,14</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-10,34; -1,57</t>
+          <t>-10,22; -1,48</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-12,49; -0,63</t>
+          <t>-12,04; -1,11</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-8,61; -2,23</t>
+          <t>-8,59; -2,22</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-19,42; -10,53</t>
+          <t>-19,42; -10,56</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-27,12; -4,54</t>
+          <t>-27,0; -4,73</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-20,76; -9,39</t>
+          <t>-20,78; -9,38</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-19,44; -10,59</t>
+          <t>-19,42; -10,6</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-27,77; -4,64</t>
+          <t>-27,45; -4,79</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-21,01; -9,52</t>
+          <t>-20,9; -9,51</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1251,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-52,69; -26,49</t>
+          <t>-52,23; -26,67</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-61,3; -48,4</t>
+          <t>-60,86; -48,37</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-54,28; -37,2</t>
+          <t>-54,67; -36,94</t>
         </is>
       </c>
     </row>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-53,18; -26,9</t>
+          <t>-52,78; -26,92</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-62,74; -50,22</t>
+          <t>-62,28; -50,26</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-55,32; -37,94</t>
+          <t>-55,65; -37,95</t>
         </is>
       </c>
     </row>
@@ -1347,17 +1347,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-26,13; -14,25</t>
+          <t>-25,82; -14,16</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-30,26; -19,29</t>
+          <t>-30,29; -19,36</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-25,69; -18,67</t>
+          <t>-25,36; -18,51</t>
         </is>
       </c>
     </row>
@@ -1393,17 +1393,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-26,35; -14,42</t>
+          <t>-26,17; -14,37</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-31,03; -19,87</t>
+          <t>-31,06; -19,88</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-26,06; -19,01</t>
+          <t>-25,87; -18,89</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P29A_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P29A_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,53; -10,27</t>
+          <t>-21,94; -10,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-40,9; -25,64</t>
+          <t>-41,86; -25,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,32; -18,16</t>
+          <t>-27,85; -18,24</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,66; -10,32</t>
+          <t>-22,05; -10,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-41,56; -26,72</t>
+          <t>-42,31; -26,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-27,77; -18,47</t>
+          <t>-28,03; -18,25</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-23,7; -11,6</t>
+          <t>-22,9; -11,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-32,37; -16,31</t>
+          <t>-32,39; -16,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,65; -15,44</t>
+          <t>-24,69; -15,32</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,8; -11,73</t>
+          <t>-23,16; -11,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,05; -17,39</t>
+          <t>-33,49; -17,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,93; -15,73</t>
+          <t>-25,1; -15,68</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,81; -0,99</t>
+          <t>-6,31; -0,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-22,83; -9,76</t>
+          <t>-23,16; -10,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,55; -5,3</t>
+          <t>-11,35; -5,06</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,83; -1,06</t>
+          <t>-6,34; -0,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-23,24; -10,16</t>
+          <t>-23,54; -10,48</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,67; -5,39</t>
+          <t>-11,42; -5,2</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 0,8</t>
+          <t>-11,45; 1,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-34,12; -3,9</t>
+          <t>-35,97; -3,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-20,01; -3,38</t>
+          <t>-21,62; -3,97</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 0,84</t>
+          <t>-11,96; 1,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-35,87; -4,3</t>
+          <t>-38,99; -4,19</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-21,42; -3,65</t>
+          <t>-22,68; -4,25</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-21,0; -1,36</t>
+          <t>-19,35; -1,72</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-62,4; -18,24</t>
+          <t>-61,99; -17,95</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-29,58; -9,07</t>
+          <t>-30,32; -10,17</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-21,34; -1,43</t>
+          <t>-19,7; -1,92</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-62,4; -18,24</t>
+          <t>-61,99; -17,95</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-29,91; -9,3</t>
+          <t>-30,85; -10,54</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-10,1; -1,44</t>
+          <t>-9,75; -1,07</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,93; -0,99</t>
+          <t>-12,03; -1,05</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,5; -2,14</t>
+          <t>-8,82; -2,37</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-10,22; -1,48</t>
+          <t>-9,81; -1,12</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-12,04; -1,11</t>
+          <t>-12,19; -1,09</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-8,59; -2,22</t>
+          <t>-8,89; -2,41</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-19,42; -10,56</t>
+          <t>-19,13; -10,44</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-27,0; -4,73</t>
+          <t>-26,6; -5,88</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-20,78; -9,38</t>
+          <t>-20,8; -9,41</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-19,42; -10,6</t>
+          <t>-19,09; -10,44</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-27,45; -4,79</t>
+          <t>-27,16; -6,06</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-20,9; -9,51</t>
+          <t>-21,02; -9,58</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1251,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-52,23; -26,67</t>
+          <t>-52,68; -26,61</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-60,86; -48,37</t>
+          <t>-60,69; -48,43</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-54,67; -36,94</t>
+          <t>-56,47; -37,47</t>
         </is>
       </c>
     </row>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-52,78; -26,92</t>
+          <t>-53,43; -26,93</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-62,28; -50,26</t>
+          <t>-62,04; -50,33</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-55,65; -37,95</t>
+          <t>-57,36; -38,27</t>
         </is>
       </c>
     </row>
@@ -1347,17 +1347,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-25,82; -14,16</t>
+          <t>-25,03; -14,27</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-30,29; -19,36</t>
+          <t>-29,98; -19,02</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-25,36; -18,51</t>
+          <t>-25,13; -18,57</t>
         </is>
       </c>
     </row>
@@ -1393,17 +1393,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-26,17; -14,37</t>
+          <t>-25,34; -14,47</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-31,06; -19,88</t>
+          <t>-30,85; -19,7</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-25,87; -18,89</t>
+          <t>-25,56; -18,97</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P29A_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P29A_R-Provincia-trans_camb.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-15,05</t>
+          <t>-15,47</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-33,55</t>
+          <t>-34,97</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-22,89</t>
+          <t>-23,38</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,94; -10,35</t>
+          <t>-23,26; -10,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-41,86; -25,85</t>
+          <t>-44,14; -26,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,85; -18,24</t>
+          <t>-28,94; -18,26</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-15,14%</t>
+          <t>-15,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-34,31%</t>
+          <t>-35,77%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-23,17%</t>
+          <t>-23,66%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-22,05; -10,44</t>
+          <t>-23,42; -10,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-42,31; -26,77</t>
+          <t>-45,09; -27,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-28,03; -18,25</t>
+          <t>-29,24; -18,59</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-16,71</t>
+          <t>-16,78</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-24,15</t>
+          <t>-24,09</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-19,7</t>
+          <t>-19,53</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-22,9; -11,13</t>
+          <t>-23,41; -11,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-32,39; -16,43</t>
+          <t>-32,27; -16,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,69; -15,32</t>
+          <t>-24,62; -15,03</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-16,85%</t>
+          <t>-16,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-25,19%</t>
+          <t>-25,13%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-20,05%</t>
+          <t>-19,87%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,16; -11,27</t>
+          <t>-23,47; -11,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,49; -17,79</t>
+          <t>-33,51; -17,77</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,1; -15,68</t>
+          <t>-25,07; -15,35</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-16,07</t>
+          <t>-16,06</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-8,05</t>
+          <t>-7,9</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,31; -0,95</t>
+          <t>-6,29; -0,93</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-23,16; -10,13</t>
+          <t>-23,19; -10,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,35; -5,06</t>
+          <t>-11,15; -4,98</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,37%</t>
+          <t>-3,34%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-8,12%</t>
+          <t>-7,98%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,34; -0,96</t>
+          <t>-6,31; -0,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-23,54; -10,48</t>
+          <t>-23,3; -10,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,42; -5,2</t>
+          <t>-11,23; -5,05</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,72</t>
+          <t>-4,84</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-14,2</t>
+          <t>-35,3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-9,07</t>
+          <t>-20,65</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,45; 1,25</t>
+          <t>-11,95; 1,06</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-35,97; -3,63</t>
+          <t>-71,57; -4,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-21,62; -3,97</t>
+          <t>-52,85; -4,52</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,96%</t>
+          <t>-5,09%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-15,04%</t>
+          <t>-37,38%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-9,56%</t>
+          <t>-21,76%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 1,22</t>
+          <t>-12,42; 1,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-38,99; -4,19</t>
+          <t>-75,81; -4,46</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-22,68; -4,25</t>
+          <t>-54,59; -4,73</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-9,47</t>
+          <t>-9,54</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-38,56</t>
+          <t>-39,48</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-17,95</t>
+          <t>-18,17</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-19,35; -1,72</t>
+          <t>-19,41; -1,83</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-61,99; -17,95</t>
+          <t>-62,91; -19,44</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-30,32; -10,17</t>
+          <t>-30,63; -10,39</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-9,64%</t>
+          <t>-9,71%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-38,56%</t>
+          <t>-39,48%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-18,17%</t>
+          <t>-18,4%</t>
         </is>
       </c>
     </row>
@@ -1009,17 +1009,17 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-19,7; -1,92</t>
+          <t>-19,75; -1,93</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-61,99; -17,95</t>
+          <t>-62,91; -19,44</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-30,85; -10,54</t>
+          <t>-31,15; -10,72</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-4,6</t>
+          <t>-4,52</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-5,71</t>
+          <t>-5,63</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-5,04</t>
+          <t>-4,95</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,75; -1,07</t>
+          <t>-9,65; -1,04</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-12,03; -1,05</t>
+          <t>-11,89; -1,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,82; -2,37</t>
+          <t>-8,76; -2,26</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-4,64%</t>
+          <t>-4,56%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-5,82%</t>
+          <t>-5,74%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-5,11%</t>
+          <t>-5,01%</t>
         </is>
       </c>
     </row>
@@ -1105,17 +1105,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-9,81; -1,12</t>
+          <t>-9,76; -1,07</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-12,19; -1,09</t>
+          <t>-12,06; -1,04</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-8,89; -2,41</t>
+          <t>-8,81; -2,31</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-14,45</t>
+          <t>-14,4</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-17,45</t>
+          <t>-13,32</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-16,26</t>
+          <t>-14,11</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-19,13; -10,44</t>
+          <t>-19,03; -10,14</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-26,6; -5,88</t>
+          <t>-26,57; -2,28</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-20,8; -9,41</t>
+          <t>-20,3; -5,65</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-14,49%</t>
+          <t>-14,44%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-17,85%</t>
+          <t>-13,63%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-16,44%</t>
+          <t>-14,26%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,17 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-19,09; -10,44</t>
+          <t>-19,06; -10,23</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-27,16; -6,06</t>
+          <t>-27,24; -2,36</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-21,02; -9,58</t>
+          <t>-20,53; -5,72</t>
         </is>
       </c>
     </row>
@@ -1228,17 +1228,17 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>-35,44</t>
+          <t>-55,32</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>-54,96</t>
+          <t>-55,4</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-42,45</t>
+          <t>-55,17</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1251,17 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-52,68; -26,61</t>
+          <t>-81,85; -26,76</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-60,69; -48,43</t>
+          <t>-60,76; -49,04</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-56,47; -37,47</t>
+          <t>-81,32; -37,63</t>
         </is>
       </c>
     </row>
@@ -1274,17 +1274,17 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>-35,87%</t>
+          <t>-55,99%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>-56,62%</t>
+          <t>-57,06%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-43,24%</t>
+          <t>-56,2%</t>
         </is>
       </c>
     </row>
@@ -1297,17 +1297,17 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-53,43; -26,93</t>
+          <t>-82,8; -27,03</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-62,04; -50,33</t>
+          <t>-62,62; -51,04</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-57,36; -38,27</t>
+          <t>-82,22; -38,46</t>
         </is>
       </c>
     </row>
@@ -1324,17 +1324,17 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-17,17</t>
+          <t>-24,28</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-26,41</t>
+          <t>-26,77</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-21,08</t>
+          <t>-25,36</t>
         </is>
       </c>
     </row>
@@ -1347,17 +1347,17 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-25,03; -14,27</t>
+          <t>-48,16; -14,06</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-29,98; -19,02</t>
+          <t>-35,63; -16,1</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-25,13; -18,57</t>
+          <t>-41,27; -18,61</t>
         </is>
       </c>
     </row>
@@ -1370,17 +1370,17 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>-17,39%</t>
+          <t>-24,6%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>-27,18%</t>
+          <t>-27,55%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-21,48%</t>
+          <t>-25,84%</t>
         </is>
       </c>
     </row>
@@ -1393,17 +1393,17 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-25,34; -14,47</t>
+          <t>-48,86; -14,24</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-30,85; -19,7</t>
+          <t>-36,53; -16,28</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-25,56; -18,97</t>
+          <t>-42,03; -18,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P29A_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P29A_R-Provincia-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,6 +520,12 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,33 +540,69 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2012/2007</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2016</t>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012/2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016/2007</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023/2007</t>
         </is>
       </c>
     </row>
@@ -542,11 +612,17 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-15,47</t>
+          <t>5,05</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-34,97</t>
+          <t>8,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-23,38</t>
+          <t>6,39</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>6,16</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>7,03</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3,41</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5,61</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7,64</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>5,18</t>
         </is>
       </c>
     </row>
@@ -579,17 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-23,26; -10,46</t>
+          <t>-3,23; 13,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-44,14; -26,54</t>
+          <t>-0,03; 17,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-28,94; -18,26</t>
+          <t>-3,11; 15,99</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-2,22; 14,68</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-0,4; 15,9</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-4,28; 10,33</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-0,16; 12,21</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>1,77; 13,94</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-0,49; 11,42</t>
         </is>
       </c>
     </row>
@@ -602,17 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-15,56%</t>
+          <t>9,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-35,77%</t>
+          <t>16,22%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-23,66%</t>
+          <t>12,44%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>22,06%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>25,21%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12,24%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>14,08%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>19,17%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>13,01%</t>
         </is>
       </c>
     </row>
@@ -625,24 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,42; -10,52</t>
+          <t>-5,73; 29,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-45,09; -27,71</t>
+          <t>0,53; 39,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-29,24; -18,59</t>
+          <t>-5,22; 34,6</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-6,89; 60,59</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-1,52; 66,41</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-12,92; 45,92</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-0,17; 33,96</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>4,28; 38,4</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-1,32; 31,34</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -652,17 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-16,78</t>
+          <t>14,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-24,09</t>
+          <t>9,19</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-19,53</t>
+          <t>7,02</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>12,35</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6,37</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>11,17</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>13,33</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7,58</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>9,35</t>
         </is>
       </c>
     </row>
@@ -675,17 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-23,41; -11,07</t>
+          <t>7,88; 21,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-32,27; -16,44</t>
+          <t>3,32; 16,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-24,62; -15,03</t>
+          <t>-0,36; 14,6</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>7,58; 16,77</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2,1; 10,68</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>6,48; 15,92</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8,95; 17,61</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3,39; 11,66</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>5,07; 14,36</t>
         </is>
       </c>
     </row>
@@ -698,17 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-16,92%</t>
+          <t>34,83%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-25,13%</t>
+          <t>21,62%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-19,87%</t>
+          <t>16,51%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>106,71%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>55,03%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>96,55%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>49,75%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>28,26%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>34,88%</t>
         </is>
       </c>
     </row>
@@ -721,24 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,47; -11,2</t>
+          <t>16,61; 54,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-33,51; -17,77</t>
+          <t>7,1; 42,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-25,07; -15,35</t>
+          <t>-0,67; 37,42</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>58,49; 181,14</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13,4; 111,8</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>46,97; 166,38</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>30,4; 70,3</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>11,8; 48,08</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>17,1; 57,21</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -748,17 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,32</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-16,06</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-7,9</t>
+          <t>-0,74</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7,62</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9,77</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,82</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,89</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>5,98</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
         </is>
       </c>
     </row>
@@ -771,17 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,29; -0,93</t>
+          <t>-10,07; 6,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-23,19; -10,06</t>
+          <t>-5,21; 10,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-11,15; -4,98</t>
+          <t>-8,74; 7,09</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0,52; 14,79</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>2,85; 16,81</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-5,72; 7,22</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-2,45; 8,79</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0,6; 11,52</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-5,15; 4,96</t>
         </is>
       </c>
     </row>
@@ -794,17 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-3,34%</t>
+          <t>-3,08%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-16,33%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-7,98%</t>
+          <t>-1,25%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>30,57%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>39,18%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3,31%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6,95%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>14,37%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-0,6%</t>
         </is>
       </c>
     </row>
@@ -817,17 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,31; -0,96</t>
+          <t>-16,15; 11,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-23,3; -10,33</t>
+          <t>-8,16; 19,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-11,23; -5,05</t>
+          <t>-13,96; 12,82</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1,2; 70,27</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>10,55; 80,81</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-20,34; 33,32</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-5,44; 22,55</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1,3; 29,35</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-11,66; 12,73</t>
         </is>
       </c>
     </row>
@@ -844,17 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-4,84</t>
+          <t>-17,86</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-35,3</t>
+          <t>-5,8</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-20,65</t>
+          <t>-7,9</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>-15,95</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1,41</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-8,36</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-17,06</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-2,13</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-10,97</t>
         </is>
       </c>
     </row>
@@ -867,17 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-11,95; 1,06</t>
+          <t>-25,39; -10,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-71,57; -4,09</t>
+          <t>-13,48; 1,59</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-52,85; -4,52</t>
+          <t>-16,89; 1,04</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-22,21; -9,58</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-5,66; 8,58</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-20,45; 0,03</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-22,04; -11,73</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-7,57; 3,22</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-22,26; -3,96</t>
         </is>
       </c>
     </row>
@@ -890,17 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-5,09%</t>
+          <t>-27,52%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-37,38%</t>
+          <t>-8,94%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-21,76%</t>
+          <t>-12,17%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>-46,22%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4,09%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-24,24%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-34,58%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-4,31%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-22,24%</t>
         </is>
       </c>
     </row>
@@ -913,17 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-12,42; 1,11</t>
+          <t>-37,72; -17,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-75,81; -4,46</t>
+          <t>-19,68; 2,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-54,59; -4,73</t>
+          <t>-24,86; 1,57</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-59,12; -29,87</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>-15,21; 28,72</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>-54,6; -0,04</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-42,65; -25,02</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-14,26; 6,94</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-44,09; -8,48</t>
         </is>
       </c>
     </row>
@@ -940,17 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-9,54</t>
+          <t>14,72</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-39,48</t>
+          <t>-1,2</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-18,17</t>
+          <t>-25,19</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3,38</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-1,13</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-14,17</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>9,02</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-1,22</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-19,93</t>
         </is>
       </c>
     </row>
@@ -963,17 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-19,41; -1,83</t>
+          <t>4,51; 24,89</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-62,91; -19,44</t>
+          <t>-11,45; 7,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-30,63; -10,39</t>
+          <t>-33,58; -16,5</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-5,5; 11,22</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-8,43; 6,58</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-20,97; -8,69</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2,95; 15,59</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-7,23; 4,85</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-25,49; -15,06</t>
         </is>
       </c>
     </row>
@@ -986,17 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-9,71%</t>
+          <t>34,55%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-39,48%</t>
+          <t>-2,8%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-18,4%</t>
+          <t>-59,11%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>18,5%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-6,21%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-77,5%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>29,89%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-4,05%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-66,03%</t>
         </is>
       </c>
     </row>
@@ -1009,24 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-19,75; -1,93</t>
+          <t>9,23; 65,54</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-62,91; -19,44</t>
+          <t>-23,46; 20,76</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-31,15; -10,72</t>
+          <t>-70,97; -41,83</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-24,75; 83,33</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-37,02; 47,42</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-87,77; -57,42</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>9,19; 58,76</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-21,81; 18,49</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-75,32; -55,37</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1036,17 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-4,52</t>
+          <t>-5,47</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-5,63</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-4,95</t>
+          <t>-9,48</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>-9,35</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>-1,49</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-1,49</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>-7,63</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>-1,05</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>-5,01</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-9,65; -1,04</t>
+          <t>-13,16; 2,63</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,89; -1,0</t>
+          <t>-8,29; 8,09</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,76; -2,26</t>
+          <t>-16,56; -1,2</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>-16,84; -0,69</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>-9,64; 6,68</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>-8,96; 6,44</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-14,34; -1,87</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-7,19; 5,22</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-10,86; 0,83</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-4,56%</t>
+          <t>-7,73%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-5,74%</t>
+          <t>-0,33%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-5,01%</t>
+          <t>-13,39%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>-23,98%</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>-3,82%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>-3,82%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>-13,94%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>-1,91%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>-9,17%</t>
         </is>
       </c>
     </row>
@@ -1105,24 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-9,76; -1,07</t>
+          <t>-17,76; 3,93</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-12,06; -1,04</t>
+          <t>-11,33; 12,03</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-8,81; -2,31</t>
+          <t>-22,75; -1,94</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>-39,43; -1,91</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>-21,5; 19,41</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>-20,85; 19,23</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-24,69; -3,41</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-12,49; 10,16</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-18,76; 1,55</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1132,17 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-14,4</t>
+          <t>11,92</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-13,32</t>
+          <t>12,49</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-14,11</t>
+          <t>4,54</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>7,47</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>16,62</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>27,72</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>9,39</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>14,51</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>16,26</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-19,03; -10,14</t>
+          <t>6,13; 17,78</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-26,57; -2,28</t>
+          <t>6,55; 18,21</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-20,3; -5,65</t>
+          <t>-2,04; 10,48</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>2,89; 12,76</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>11,67; 21,86</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>9,62; 54,42</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>5,55; 13,34</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>10,6; 18,56</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>6,34; 36,11</t>
         </is>
       </c>
     </row>
@@ -1178,17 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-14,44%</t>
+          <t>26,44%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-13,63%</t>
+          <t>27,71%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-14,26%</t>
+          <t>10,07%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>37,74%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>84,01%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>140,1%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>29,21%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>45,14%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>50,6%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-19,06; -10,23</t>
+          <t>12,77; 42,08</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-27,24; -2,36</t>
+          <t>13,36; 43,22</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-20,53; -5,72</t>
+          <t>-4,44; 24,51</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>12,87; 74,29</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>52,32; 125,86</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>45,97; 328,77</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>16,39; 44,74</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>31,06; 61,5</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>19,33; 118,98</t>
         </is>
       </c>
     </row>
@@ -1228,17 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>-55,32</t>
+          <t>-8,69</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>-55,4</t>
+          <t>-7,21</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>-55,17</t>
+          <t>-33,46</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>-4,36</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>2,89</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>-13,11</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-6,74</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-2,19</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-21,75</t>
         </is>
       </c>
     </row>
@@ -1251,17 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-81,85; -26,76</t>
+          <t>-13,71; -3,61</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-60,76; -49,04</t>
+          <t>-11,9; -2,01</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-81,32; -37,63</t>
+          <t>-51,84; -20,93</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-8,89; 0,02</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-1,5; 7,57</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-16,74; -9,18</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-10,4; -3,02</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-5,63; 1,82</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-31,51; -16,9</t>
         </is>
       </c>
     </row>
@@ -1274,17 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>-55,99%</t>
+          <t>-13,71%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>-57,06%</t>
+          <t>-11,38%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>-56,2%</t>
+          <t>-52,82%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>-16,08%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>10,66%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>-48,36%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>-15,07%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-4,9%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-48,62%</t>
         </is>
       </c>
     </row>
@@ -1297,17 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-82,8; -27,03</t>
+          <t>-21,17; -5,99</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-62,62; -51,04</t>
+          <t>-18,01; -3,36</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-82,22; -38,46</t>
+          <t>-80,44; -33,44</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>-30,2; 0,28</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>-5,19; 30,83</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-56,95; -36,6</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>-22,12; -6,99</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>-12,06; 4,35</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-69,18; -38,24</t>
         </is>
       </c>
     </row>
@@ -1324,17 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>-24,28</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>-26,77</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>-25,36</t>
+          <t>-9,18</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>6,22</t>
+        </is>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>3,63</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>4,1</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>-2,72</t>
         </is>
       </c>
     </row>
@@ -1347,17 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-48,16; -14,06</t>
+          <t>-1,35; 3,64</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-35,63; -16,1</t>
+          <t>-0,39; 4,36</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-41,27; -18,61</t>
+          <t>-18,95; -4,75</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 3,27</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>4,07; 8,28</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>-1,26; 16,42</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>-0,66; 2,7</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>2,31; 5,8</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>-6,07; 3,74</t>
         </is>
       </c>
     </row>
@@ -1370,17 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>-24,6%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>-27,55%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>-25,84%</t>
+          <t>-16,7%</t>
+        </is>
+      </c>
+      <c r="F38" s="2" t="inlineStr">
+        <is>
+          <t>4,7%</t>
+        </is>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>25,35%</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>14,82%</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>2,5%</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>10,4%</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>-6,91%</t>
         </is>
       </c>
     </row>
@@ -1393,17 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-48,86; -14,24</t>
+          <t>-2,45; 6,76</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-36,53; -16,28</t>
+          <t>-0,68; 8,11</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-42,03; -18,95</t>
+          <t>-34,03; -8,72</t>
+        </is>
+      </c>
+      <c r="F39" s="2" t="inlineStr">
+        <is>
+          <t>-3,72; 13,86</t>
+        </is>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>15,98; 35,07</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>-5,01; 67,86</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 6,94</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>5,72; 15,1</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>-15,31; 9,37</t>
         </is>
       </c>
     </row>
@@ -1415,12 +2571,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
